--- a/cokproj.xlsx
+++ b/cokproj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raji\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demo12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D60434-07AE-4A90-ABF6-2DB68506FF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260415E7-D257-439C-8F73-BFD5FEC24C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E594DC9-3ED1-442A-BC4E-375EDF10E3B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7E594DC9-3ED1-442A-BC4E-375EDF10E3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="268">
   <si>
     <t>Sl.No</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>Submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git Testing </t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793E2D3-AFA3-42B7-94DC-9C2AE9805379}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
@@ -3640,12 +3643,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12DB018-3D7F-405E-AD97-608C59C1F53F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>